--- a/src/main/java/testdata/SubEventcreation.xlsx
+++ b/src/main/java/testdata/SubEventcreation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation Code\WTTAutomation\src\main\java\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selvakannan A\Automation_Code_Wtt\WTT\src\main\java\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C04E249-8165-4B37-B224-C3704170A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CB4A7A-C2A9-4F29-A215-03B28BC14401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{874FB0A8-2EAA-432B-B9CB-B11CCAC51225}"/>
   </bookViews>
   <sheets>
     <sheet name="Closed" sheetId="1" r:id="rId1"/>
@@ -180,9 +180,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>men's singles</t>
-  </si>
-  <si>
     <t>wtt</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Men's singles</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3585C-659B-4DD5-B514-584F2D181BBE}">
   <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:BG5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,6 +658,7 @@
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="54.5703125" customWidth="1"/>
     <col min="31" max="31" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -761,16 +762,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>26</v>
@@ -779,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>28</v>
@@ -797,13 +798,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>33</v>
@@ -812,7 +813,7 @@
         <v>34</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>35</v>
@@ -821,13 +822,13 @@
         <v>36</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>37</v>
@@ -851,7 +852,7 @@
         <v>43</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>44</v>
@@ -877,65 +878,65 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
       <c r="Z2" t="s">
         <v>46</v>
       </c>
@@ -943,91 +944,91 @@
         <v>46</v>
       </c>
       <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AZ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE2" t="s">
         <v>46</v>
@@ -1056,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1065,56 +1066,56 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
       <c r="Z3" t="s">
         <v>46</v>
       </c>
@@ -1122,91 +1123,91 @@
         <v>46</v>
       </c>
       <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE3" t="s">
         <v>46</v>
@@ -1235,7 +1236,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1244,56 +1245,56 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
@@ -1301,91 +1302,91 @@
         <v>46</v>
       </c>
       <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AZ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB4" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE4" t="s">
         <v>46</v>
@@ -1414,7 +1415,7 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1423,56 +1424,56 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
       <c r="Z5" t="s">
         <v>46</v>
       </c>
@@ -1480,91 +1481,91 @@
         <v>46</v>
       </c>
       <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AZ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE5" t="s">
         <v>46</v>
@@ -1585,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442EBB8C-D90A-4272-9591-7E7480FCD1DA}">
   <dimension ref="A1:BG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,16 +1676,16 @@
         <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>26</v>
@@ -1693,7 +1694,7 @@
         <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>28</v>
@@ -1711,13 +1712,13 @@
         <v>32</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>33</v>
@@ -1726,7 +1727,7 @@
         <v>34</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>35</v>
@@ -1735,13 +1736,13 @@
         <v>36</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>37</v>
@@ -1765,7 +1766,7 @@
         <v>43</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>44</v>
@@ -1791,65 +1792,65 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>52</v>
-      </c>
       <c r="Z2" t="s">
         <v>46</v>
       </c>
@@ -1857,91 +1858,91 @@
         <v>46</v>
       </c>
       <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AL2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AZ2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB2" t="s">
         <v>54</v>
       </c>
-      <c r="AL2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE2" t="s">
         <v>46</v>
@@ -1970,7 +1971,7 @@
         <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1979,56 +1980,56 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>52</v>
-      </c>
       <c r="Z3" t="s">
         <v>46</v>
       </c>
@@ -2036,91 +2037,91 @@
         <v>46</v>
       </c>
       <c r="AB3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="AL3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AZ3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB3" t="s">
         <v>54</v>
       </c>
-      <c r="AL3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE3" t="s">
         <v>46</v>
@@ -2149,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2158,56 +2159,56 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U4" t="s">
-        <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>51</v>
-      </c>
-      <c r="W4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>52</v>
-      </c>
       <c r="Z4" t="s">
         <v>46</v>
       </c>
@@ -2215,91 +2216,91 @@
         <v>46</v>
       </c>
       <c r="AB4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AL4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AZ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB4" t="s">
         <v>54</v>
       </c>
-      <c r="AL4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD4" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE4" t="s">
         <v>46</v>
@@ -2328,65 +2329,65 @@
         <v>46</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="N5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
       <c r="Z5" t="s">
         <v>46</v>
       </c>
@@ -2394,91 +2395,91 @@
         <v>46</v>
       </c>
       <c r="AB5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AL5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AZ5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="s">
         <v>54</v>
       </c>
-      <c r="AL5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BE5" t="s">
         <v>46</v>
